--- a/Species_list_v3.xlsx
+++ b/Species_list_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\candi\OneDrive\Documents\Work\InvasionS\OneSTOP\WP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\Projects\OneSTOP\repos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88602AE0-6B36-4DB0-AA44-A0CFE204600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6ECC82-2B7E-4A5C-A4C1-F94729CE007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{97DD50A9-AF4B-4AB0-83AD-BDD62E1A22CA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97DD50A9-AF4B-4AB0-83AD-BDD62E1A22CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Target Species" sheetId="1" r:id="rId1"/>
@@ -407,9 +407,6 @@
     <t>Acridotheres tristis</t>
   </si>
   <si>
-    <t>Alopochen aegyptiacus</t>
-  </si>
-  <si>
     <t>Ameiurus melas</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>Limnoperna fortunei</t>
   </si>
   <si>
-    <t>Lithobates (Rana) catesbeianus</t>
-  </si>
-  <si>
     <t>Morone americana</t>
   </si>
   <si>
@@ -662,9 +656,6 @@
     <t>Rugulopteryx okamurae</t>
   </si>
   <si>
-    <t>Salvinia molesta</t>
-  </si>
-  <si>
     <t>Triadica sebifera</t>
   </si>
   <si>
@@ -722,9 +713,6 @@
     <t>Nanozostera japonica</t>
   </si>
   <si>
-    <t>Neogale vison</t>
-  </si>
-  <si>
     <t>Obama nungara</t>
   </si>
   <si>
@@ -738,9 +726,6 @@
   </si>
   <si>
     <t>Reynoutria sachalinensis</t>
-  </si>
-  <si>
-    <t>Reynoutria bohemica</t>
   </si>
   <si>
     <t>Vespa mandarinia</t>
@@ -1239,6 +1224,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Reynoutria ×bohemica</t>
+  </si>
+  <si>
+    <t>Alopochen aegyptiaca</t>
+  </si>
+  <si>
+    <t>Mustela vison</t>
+  </si>
+  <si>
+    <t>Lithobates catesbeianus</t>
+  </si>
+  <si>
+    <t>Salvinia ×molesta</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1332,14 +1332,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1360,7 +1354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1679,36 +1673,36 @@
   <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.8984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>119</v>
@@ -1716,32 +1710,32 @@
       <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>120</v>
       </c>
@@ -1752,19 +1746,19 @@
         <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J2" s="2">
         <v>32260</v>
@@ -1776,12 +1770,12 @@
         <v>18058</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1790,19 +1784,19 @@
         <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J3" s="2">
         <v>19273</v>
@@ -1814,10 +1808,10 @@
         <v>15818</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
@@ -1828,19 +1822,19 @@
         <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J4" s="2">
         <v>173520</v>
@@ -1852,12 +1846,12 @@
         <v>145627</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1868,17 +1862,17 @@
       <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J5" s="2">
         <v>2879246</v>
@@ -1890,12 +1884,12 @@
         <v>2631439</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1904,19 +1898,19 @@
         <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J6" s="2">
         <v>163717</v>
@@ -1928,12 +1922,12 @@
         <v>134660</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -1942,19 +1936,19 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J7" s="2">
         <v>1847435</v>
@@ -1966,33 +1960,33 @@
         <v>1655585</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J8" s="2">
         <v>12066</v>
@@ -2004,12 +1998,12 @@
         <v>7231</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -2018,19 +2012,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J9" s="2">
         <v>4909</v>
@@ -2042,12 +2036,12 @@
         <v>1541</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -2056,19 +2050,19 @@
         <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J10" s="2">
         <v>94540</v>
@@ -2080,12 +2074,12 @@
         <v>89627</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -2094,19 +2088,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J11" s="2">
         <v>5591</v>
@@ -2118,12 +2112,12 @@
         <v>5165</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -2132,19 +2126,19 @@
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J12" s="2">
         <v>36055</v>
@@ -2156,10 +2150,10 @@
         <v>32310</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>120</v>
       </c>
@@ -2170,19 +2164,19 @@
         <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J13" s="2">
         <v>4199</v>
@@ -2194,10 +2188,10 @@
         <v>4128</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
@@ -2208,19 +2202,19 @@
         <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J14" s="2">
         <v>2900</v>
@@ -2232,10 +2226,10 @@
         <v>2835</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>120</v>
       </c>
@@ -2246,19 +2240,19 @@
         <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J15" s="2">
         <v>52231</v>
@@ -2270,12 +2264,12 @@
         <v>39413</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -2284,19 +2278,19 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J16" s="2">
         <v>8749</v>
@@ -2308,12 +2302,12 @@
         <v>8036</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -2322,19 +2316,19 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J17" s="2">
         <v>2426</v>
@@ -2346,12 +2340,12 @@
         <v>2144</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
@@ -2360,19 +2354,19 @@
         <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J18" s="2">
         <v>5726</v>
@@ -2384,10 +2378,10 @@
         <v>3177</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>120</v>
       </c>
@@ -2398,19 +2392,19 @@
         <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J19" s="2">
         <v>80726</v>
@@ -2422,12 +2416,12 @@
         <v>75751</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>3</v>
@@ -2436,19 +2430,19 @@
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J20" s="2">
         <v>35140</v>
@@ -2460,10 +2454,10 @@
         <v>30925</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>120</v>
       </c>
@@ -2474,19 +2468,19 @@
         <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J21" s="2">
         <v>12448</v>
@@ -2498,12 +2492,12 @@
         <v>8844</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
@@ -2512,19 +2506,19 @@
         <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J22" s="2">
         <v>10909</v>
@@ -2536,12 +2530,12 @@
         <v>3668</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
@@ -2550,19 +2544,19 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J23" s="2">
         <v>1233783</v>
@@ -2574,10 +2568,10 @@
         <v>1213468</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>120</v>
       </c>
@@ -2588,19 +2582,19 @@
         <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J24" s="2">
         <v>10011</v>
@@ -2612,12 +2606,12 @@
         <v>7293</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3</v>
@@ -2626,19 +2620,19 @@
         <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J25" s="2">
         <v>11223</v>
@@ -2650,12 +2644,12 @@
         <v>3975</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
@@ -2664,19 +2658,19 @@
         <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J26" s="2">
         <v>17354</v>
@@ -2688,12 +2682,12 @@
         <v>16375</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
@@ -2702,19 +2696,19 @@
         <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J27" s="2">
         <v>10667</v>
@@ -2726,12 +2720,12 @@
         <v>5614</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
@@ -2740,19 +2734,19 @@
         <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J28" s="2">
         <v>205780</v>
@@ -2764,12 +2758,12 @@
         <v>164860</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
@@ -2778,19 +2772,19 @@
         <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J29" s="2">
         <v>4545</v>
@@ -2802,12 +2796,12 @@
         <v>3881</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -2816,19 +2810,19 @@
         <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J30" s="2">
         <v>28168</v>
@@ -2840,12 +2834,12 @@
         <v>27562</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3</v>
@@ -2854,19 +2848,19 @@
         <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J31" s="2">
         <v>13812</v>
@@ -2878,12 +2872,12 @@
         <v>9885</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
@@ -2892,19 +2886,19 @@
         <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J32" s="2">
         <v>503292</v>
@@ -2916,12 +2910,12 @@
         <v>396981</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
@@ -2930,19 +2924,19 @@
         <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J33" s="2">
         <v>4351</v>
@@ -2954,12 +2948,12 @@
         <v>2429</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
@@ -2968,19 +2962,19 @@
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J34" s="2">
         <v>8053</v>
@@ -2992,12 +2986,12 @@
         <v>2217</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
@@ -3006,19 +3000,19 @@
         <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J35" s="2">
         <v>21404</v>
@@ -3030,12 +3024,12 @@
         <v>14441</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
@@ -3044,19 +3038,19 @@
         <v>78</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J36" s="2">
         <v>18981</v>
@@ -3068,12 +3062,12 @@
         <v>12446</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
@@ -3082,19 +3076,19 @@
         <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J37" s="2">
         <v>32045</v>
@@ -3106,12 +3100,12 @@
         <v>30474</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
@@ -3120,19 +3114,19 @@
         <v>80</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J38" s="2">
         <v>18838</v>
@@ -3144,12 +3138,12 @@
         <v>15649</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -3158,19 +3152,19 @@
         <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J39" s="2">
         <v>118892</v>
@@ -3182,12 +3176,12 @@
         <v>110857</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
@@ -3196,19 +3190,19 @@
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J40" s="2">
         <v>152372</v>
@@ -3220,12 +3214,12 @@
         <v>122918</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
@@ -3234,19 +3228,19 @@
         <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J41" s="2">
         <v>6801</v>
@@ -3258,10 +3252,10 @@
         <v>5749</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>120</v>
       </c>
@@ -3272,19 +3266,19 @@
         <v>111</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J42" s="2">
         <v>23338</v>
@@ -3296,12 +3290,12 @@
         <v>17113</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>3</v>
@@ -3310,19 +3304,19 @@
         <v>29</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J43" s="2">
         <v>43145</v>
@@ -3334,10 +3328,10 @@
         <v>27349</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>120</v>
       </c>
@@ -3348,19 +3342,19 @@
         <v>112</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J44" s="2">
         <v>1372</v>
@@ -3372,12 +3366,12 @@
         <v>1375</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
@@ -3386,19 +3380,19 @@
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J45" s="2">
         <v>1134968</v>
@@ -3410,12 +3404,12 @@
         <v>751181</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
@@ -3424,19 +3418,19 @@
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J46" s="2">
         <v>2675018</v>
@@ -3448,12 +3442,12 @@
         <v>2395108</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
@@ -3462,19 +3456,19 @@
         <v>83</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J47" s="2">
         <v>27887</v>
@@ -3486,12 +3480,12 @@
         <v>19638</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -3500,19 +3494,19 @@
         <v>84</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J48" s="2">
         <v>5123</v>
@@ -3524,12 +3518,12 @@
         <v>1563</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
@@ -3538,19 +3532,19 @@
         <v>85</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J49" s="2">
         <v>12026</v>
@@ -3562,10 +3556,10 @@
         <v>8835</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>120</v>
       </c>
@@ -3576,19 +3570,19 @@
         <v>113</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J50" s="2">
         <v>1013</v>
@@ -3600,12 +3594,12 @@
         <v>1030</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -3614,19 +3608,19 @@
         <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J51" s="2">
         <v>137596</v>
@@ -3638,12 +3632,12 @@
         <v>129321</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
@@ -3652,19 +3646,19 @@
         <v>88</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J52" s="2">
         <v>20680</v>
@@ -3676,12 +3670,12 @@
         <v>17811</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
@@ -3690,19 +3684,19 @@
         <v>89</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J53" s="2">
         <v>20027</v>
@@ -3714,12 +3708,12 @@
         <v>11083</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
@@ -3728,19 +3722,19 @@
         <v>39</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J54" s="2">
         <v>1137844</v>
@@ -3752,10 +3746,10 @@
         <v>1118057</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>120</v>
       </c>
@@ -3766,19 +3760,19 @@
         <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F55" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J55" s="2">
         <v>756609</v>
@@ -3790,10 +3784,10 @@
         <v>731829</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>120</v>
       </c>
@@ -3804,19 +3798,19 @@
         <v>117</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J56" s="2">
         <v>17969</v>
@@ -3828,10 +3822,10 @@
         <v>11417</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>120</v>
       </c>
@@ -3842,19 +3836,19 @@
         <v>115</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F57" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J57" s="2">
         <v>414318</v>
@@ -3866,10 +3860,10 @@
         <v>291563</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>120</v>
       </c>
@@ -3880,19 +3874,19 @@
         <v>116</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F58" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J58" s="2">
         <v>28359</v>
@@ -3904,12 +3898,12 @@
         <v>17384</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -3918,19 +3912,19 @@
         <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F59" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J59" s="2">
         <v>513021</v>
@@ -3942,12 +3936,12 @@
         <v>432274</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>3</v>
@@ -3956,19 +3950,19 @@
         <v>41</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F60" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J60" s="2">
         <v>95266</v>
@@ -3980,12 +3974,12 @@
         <v>90554</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
@@ -3994,19 +3988,19 @@
         <v>42</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J61" s="2">
         <v>13380</v>
@@ -4018,12 +4012,12 @@
         <v>7478</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>3</v>
@@ -4032,19 +4026,19 @@
         <v>43</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F62" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J62" s="2">
         <v>20766</v>
@@ -4056,12 +4050,12 @@
         <v>14612</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3</v>
@@ -4070,19 +4064,19 @@
         <v>44</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J63" s="2">
         <v>530</v>
@@ -4094,12 +4088,12 @@
         <v>80</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
@@ -4108,19 +4102,19 @@
         <v>45</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F64" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J64" s="2">
         <v>19256</v>
@@ -4132,12 +4126,12 @@
         <v>12166</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
@@ -4146,19 +4140,19 @@
         <v>46</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F65" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J65" s="2">
         <v>352741</v>
@@ -4170,12 +4164,12 @@
         <v>271367</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
@@ -4184,19 +4178,19 @@
         <v>47</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F66" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J66" s="2">
         <v>182753</v>
@@ -4208,12 +4202,12 @@
         <v>164473</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
@@ -4222,19 +4216,19 @@
         <v>92</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J67" s="2">
         <v>22802</v>
@@ -4246,12 +4240,12 @@
         <v>19447</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>3</v>
@@ -4260,19 +4254,19 @@
         <v>48</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F68" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J68" s="2">
         <v>2444</v>
@@ -4284,10 +4278,10 @@
         <v>2210</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -4298,19 +4292,19 @@
         <v>118</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J69" s="2">
         <v>3716</v>
@@ -4322,12 +4316,12 @@
         <v>3153</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>3</v>
@@ -4336,19 +4330,19 @@
         <v>49</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F70" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J70" s="2">
         <v>176498</v>
@@ -4360,12 +4354,12 @@
         <v>166498</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>3</v>
@@ -4374,19 +4368,19 @@
         <v>50</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F71" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J71" s="2">
         <v>12860</v>
@@ -4398,12 +4392,12 @@
         <v>7414</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>6</v>
@@ -4412,19 +4406,19 @@
         <v>55</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F72" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J72" s="2">
         <v>37145</v>
@@ -4436,12 +4430,12 @@
         <v>23724</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>6</v>
@@ -4450,19 +4444,19 @@
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J73" s="2">
         <v>52858</v>
@@ -4474,10 +4468,10 @@
         <v>12825</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>120</v>
       </c>
@@ -4488,19 +4482,19 @@
         <v>95</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F74" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J74" s="2">
         <v>1718</v>
@@ -4512,12 +4506,12 @@
         <v>1374</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
@@ -4526,19 +4520,19 @@
         <v>58</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F75" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J75" s="2">
         <v>5955</v>
@@ -4550,12 +4544,12 @@
         <v>3763</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>6</v>
@@ -4564,19 +4558,19 @@
         <v>11</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J76" s="2">
         <v>6425</v>
@@ -4588,10 +4582,10 @@
         <v>4265</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>120</v>
       </c>
@@ -4602,19 +4596,19 @@
         <v>101</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F77" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J77" s="2">
         <v>7215</v>
@@ -4626,10 +4620,10 @@
         <v>4410</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>120</v>
       </c>
@@ -4640,19 +4634,19 @@
         <v>102</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F78" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J78" s="2">
         <v>7757</v>
@@ -4664,10 +4658,10 @@
         <v>6550</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>120</v>
       </c>
@@ -4678,19 +4672,19 @@
         <v>103</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F79" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J79" s="2">
         <v>22195</v>
@@ -4702,12 +4696,12 @@
         <v>17343</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>6</v>
@@ -4716,19 +4710,19 @@
         <v>63</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F80" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J80" s="2">
         <v>102883</v>
@@ -4740,12 +4734,12 @@
         <v>38030</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
@@ -4754,19 +4748,19 @@
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F81" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J81" s="2">
         <v>22469</v>
@@ -4778,10 +4772,10 @@
         <v>18753</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>120</v>
       </c>
@@ -4792,19 +4786,19 @@
         <v>105</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F82" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="J82" s="2">
         <v>1105</v>
@@ -4816,12 +4810,12 @@
         <v>438</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>6</v>
@@ -4830,19 +4824,19 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F83" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J83" s="2">
         <v>55394</v>
@@ -4854,12 +4848,12 @@
         <v>29907</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>6</v>
@@ -4868,19 +4862,19 @@
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F84" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J84" s="2">
         <v>6454</v>
@@ -4892,12 +4886,12 @@
         <v>3402</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>6</v>
@@ -4906,19 +4900,19 @@
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F85" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J85" s="2">
         <v>12234</v>
@@ -4930,12 +4924,12 @@
         <v>7617</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>6</v>
@@ -4944,19 +4938,19 @@
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F86" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J86" s="2">
         <v>5786</v>
@@ -4968,12 +4962,12 @@
         <v>2950</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>6</v>
@@ -4982,19 +4976,19 @@
         <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F87" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J87" s="2">
         <v>73741</v>
@@ -5006,12 +5000,12 @@
         <v>24401</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>6</v>
@@ -5020,19 +5014,19 @@
         <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F88" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J88" s="2">
         <v>43245</v>
@@ -5044,12 +5038,12 @@
         <v>24204</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>6</v>
@@ -5058,19 +5052,19 @@
         <v>65</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F89" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J89" s="2">
         <v>1560</v>
@@ -5082,12 +5076,12 @@
         <v>1045</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>6</v>
@@ -5096,19 +5090,19 @@
         <v>71</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F90" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J90" s="2">
         <v>26542</v>
@@ -5120,12 +5114,12 @@
         <v>22674</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>6</v>
@@ -5134,19 +5128,19 @@
         <v>74</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F91" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J91" s="2">
         <v>6186</v>
@@ -5158,12 +5152,12 @@
         <v>2797</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>6</v>
@@ -5172,19 +5166,19 @@
         <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F92" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="J92" s="2">
         <v>194003</v>
@@ -5196,12 +5190,12 @@
         <v>80860</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>6</v>
@@ -5210,19 +5204,19 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="J93" s="2">
         <v>641</v>
@@ -5234,12 +5228,12 @@
         <v>334</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>6</v>
@@ -5248,22 +5242,22 @@
         <v>23</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J94" s="2">
         <v>121518</v>
@@ -5275,12 +5269,12 @@
         <v>95081</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>6</v>
@@ -5289,19 +5283,19 @@
         <v>76</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F95" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J95" s="2">
         <v>22706</v>
@@ -5313,12 +5307,12 @@
         <v>17383</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>6</v>
@@ -5327,19 +5321,19 @@
         <v>77</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F96" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J96" s="2">
         <v>25584</v>
@@ -5351,10 +5345,10 @@
         <v>16745</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>120</v>
       </c>
@@ -5365,19 +5359,19 @@
         <v>106</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F97" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J97" s="2">
         <v>574</v>
@@ -5389,10 +5383,10 @@
         <v>354</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>120</v>
       </c>
@@ -5403,19 +5397,19 @@
         <v>107</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F98" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J98" s="2">
         <v>18126</v>
@@ -5427,10 +5421,10 @@
         <v>8440</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>120</v>
       </c>
@@ -5441,19 +5435,19 @@
         <v>108</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F99" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="J99" s="2">
         <v>92</v>
@@ -5465,12 +5459,12 @@
         <v>200</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>6</v>
@@ -5479,19 +5473,19 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F100" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="J100" s="2">
         <v>12899</v>
@@ -5503,10 +5497,10 @@
         <v>3387</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>120</v>
       </c>
@@ -5517,19 +5511,19 @@
         <v>109</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F101" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J101" s="2">
         <v>3446</v>
@@ -5541,12 +5535,12 @@
         <v>1396</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>6</v>
@@ -5555,19 +5549,19 @@
         <v>81</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F102" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J102" s="2">
         <v>19841</v>
@@ -5579,12 +5573,12 @@
         <v>12877</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>6</v>
@@ -5593,19 +5587,19 @@
         <v>82</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F103" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J103" s="2">
         <v>4132</v>
@@ -5617,10 +5611,10 @@
         <v>2386</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>120</v>
       </c>
@@ -5631,19 +5625,19 @@
         <v>110</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F104" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J104" s="2">
         <v>50</v>
@@ -5655,12 +5649,12 @@
         <v>47</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>6</v>
@@ -5669,19 +5663,19 @@
         <v>32</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F105" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J105" s="2">
         <v>105795</v>
@@ -5693,12 +5687,12 @@
         <v>69322</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>6</v>
@@ -5707,19 +5701,19 @@
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F106" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J106" s="2">
         <v>1627</v>
@@ -5731,12 +5725,12 @@
         <v>1250</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>6</v>
@@ -5745,19 +5739,19 @@
         <v>86</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F107" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="J107" s="2">
         <v>19893</v>
@@ -5769,12 +5763,12 @@
         <v>10499</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>6</v>
@@ -5783,19 +5777,19 @@
         <v>34</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F108" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J108" s="2">
         <v>3739</v>
@@ -5807,12 +5801,12 @@
         <v>2312</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>6</v>
@@ -5821,19 +5815,19 @@
         <v>87</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F109" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J109" s="2">
         <v>37145</v>
@@ -5845,12 +5839,12 @@
         <v>19358</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>6</v>
@@ -5859,19 +5853,19 @@
         <v>35</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F110" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J110" s="2">
         <v>70883</v>
@@ -5883,12 +5877,12 @@
         <v>56433</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>6</v>
@@ -5897,19 +5891,19 @@
         <v>36</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F111" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J111" s="2">
         <v>371</v>
@@ -5921,12 +5915,12 @@
         <v>371</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>6</v>
@@ -5935,19 +5929,19 @@
         <v>38</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F112" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J112" s="2">
         <v>94701</v>
@@ -5959,12 +5953,12 @@
         <v>67605</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>6</v>
@@ -5973,19 +5967,19 @@
         <v>90</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F113" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J113" s="2">
         <v>1090</v>
@@ -5997,12 +5991,12 @@
         <v>1088</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>6</v>
@@ -6011,19 +6005,19 @@
         <v>91</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F114" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J114" s="2">
         <v>6622</v>
@@ -6035,12 +6029,12 @@
         <v>3791</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>6</v>
@@ -6049,19 +6043,19 @@
         <v>51</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F115" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J115" s="2">
         <v>5524</v>
@@ -6073,7 +6067,7 @@
         <v>2735</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
